--- a/Tags.xlsx
+++ b/Tags.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Copy" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Tag List</t>
   </si>
@@ -499,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,193 +522,129 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -718,13 +655,221 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -738,4 +883,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>